--- a/biology/Botanique/Plectranthus_lanuginosus/Plectranthus_lanuginosus.xlsx
+++ b/biology/Botanique/Plectranthus_lanuginosus/Plectranthus_lanuginosus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plectranthus lanuginosus est une espèce de plantes de la famille des Labiées (Lamiaceae) qui fait partie des végétaux communément appelés coléus.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,11 +551,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite originellement sous le nom de Coleus lanuginosus par George Bentham (1800-1884)[2].
-Synonymes
-Selon la WCSP de Kew, consultée le 30 novembre 2015 :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite originellement sous le nom de Coleus lanuginosus par George Bentham (1800-1884).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plectranthus_lanuginosus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_lanuginosus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon la WCSP de Kew, consultée le 30 novembre 2015 :
 Coleus lanuginosus Hochst. ex Benth. (Homotypique)
 Majana lanuginosa (Hochst. ex Benth.) Kuntze (Homotypique)
 Coleus albidus Vatke
